--- a/src/attributions/attributions_saliency_traj_440.xlsx
+++ b/src/attributions/attributions_saliency_traj_440.xlsx
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0006949418457224965</v>
+        <v>3.372493040387781e-08</v>
       </c>
       <c r="B2" t="n">
-        <v>9.734396735439077e-05</v>
+        <v>8.084908245109546e-07</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001031502542900853</v>
+        <v>2.637675891037361e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000100442353868857</v>
+        <v>5.028284704167163e-07</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001572787761688232</v>
+        <v>1.469037158585706e-08</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0009274291223846376</v>
+        <v>3.30669507775383e-07</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0008440649835392833</v>
+        <v>3.185127184224257e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0001886055106297135</v>
+        <v>1.359939147960176e-07</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001178500970127061</v>
+        <v>1.541805829674558e-07</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0007822428597137332</v>
+        <v>2.744315565905708e-07</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0004644700093194842</v>
+        <v>8.212394959628e-07</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004013177531305701</v>
+        <v>7.985821071088139e-08</v>
       </c>
       <c r="M2" t="n">
-        <v>9.732302714837715e-05</v>
+        <v>5.614519977825694e-07</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001496862270869315</v>
+        <v>1.416281492083726e-07</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0006868689670227468</v>
+        <v>4.472802288546518e-07</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0001415772130712867</v>
+        <v>6.512834005434343e-08</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.300783515034709e-05</v>
+        <v>2.59199680385791e-07</v>
       </c>
       <c r="R2" t="n">
-        <v>9.911234519677237e-05</v>
+        <v>1.934887166044064e-07</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0002906601584982127</v>
+        <v>7.546488234311255e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>3.757291779038496e-05</v>
+        <v>1.903418791471267e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>0.000185890487045981</v>
+        <v>1.078692122291613e-07</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0005550874629989266</v>
+        <v>7.74403474679275e-08</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0002198066358687356</v>
+        <v>2.483082539583847e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>8.412516035605222e-05</v>
+        <v>1.067187653802648e-07</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0001357026339974254</v>
+        <v>2.172583322135324e-07</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0001256336399819702</v>
+        <v>2.032687405062461e-07</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0004637798410840333</v>
+        <v>1.154137905245989e-07</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0001631545892450958</v>
+        <v>3.628322815529827e-07</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.267564847599715e-05</v>
+        <v>5.156281801532714e-08</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0002391841117059812</v>
+        <v>8.673690388150135e-08</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0001262337318621576</v>
+        <v>2.506482132957899e-07</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.440480112563819e-05</v>
+        <v>2.25713421286855e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0001135194761445746</v>
+        <v>2.093725441909555e-07</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0002091610222123563</v>
+        <v>9.188799765524891e-08</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.000118007454148028</v>
+        <v>1.141716055030884e-07</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0002718965115491301</v>
+        <v>4.248147789098766e-08</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0002173126267734915</v>
+        <v>1.185881473020345e-07</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0001402968046022579</v>
+        <v>3.941841555388237e-07</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0004182520497124642</v>
+        <v>6.4993237458566e-08</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.774105764226988e-05</v>
+        <v>3.694539429943688e-07</v>
       </c>
       <c r="AO2" t="n">
-        <v>7.756600098218769e-05</v>
+        <v>6.04792234071283e-08</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.000153673769091256</v>
+        <v>4.050085067319742e-08</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.763666659826413e-05</v>
+        <v>8.253359595755683e-08</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0002017848310060799</v>
+        <v>1.138484932994288e-07</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.737451541179325e-05</v>
+        <v>4.884046944653164e-08</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.0002075136872008443</v>
+        <v>1.351863829768263e-07</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0001899347262224182</v>
+        <v>1.42948380243979e-07</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0002149077772628516</v>
+        <v>1.797144477677648e-08</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0001047059122356586</v>
+        <v>5.704248451365856e-08</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0006848752964287996</v>
+        <v>5.177618049856392e-07</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0001300408330280334</v>
+        <v>4.432117961528093e-08</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.0001701221917755902</v>
+        <v>2.220011907638764e-07</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0001266780309379101</v>
+        <v>6.316876266510008e-08</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0003615366877056658</v>
+        <v>1.168685201946573e-07</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0003282369871158153</v>
+        <v>4.345340798295183e-08</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0002051991177722812</v>
+        <v>5.226033295002708e-07</v>
       </c>
       <c r="BE2" t="n">
-        <v>3.01494037557859e-06</v>
+        <v>1.343684772336928e-07</v>
       </c>
       <c r="BF2" t="n">
-        <v>3.266394924139604e-05</v>
+        <v>3.392211453956406e-07</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0004080845974385738</v>
+        <v>1.428257263569321e-07</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0005111614591442049</v>
+        <v>1.491895602612203e-07</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0004479766357690096</v>
+        <v>6.210883185531202e-08</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0002122693113051355</v>
+        <v>8.183903332792397e-08</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0003074608102906495</v>
+        <v>3.009913598361891e-07</v>
       </c>
       <c r="BL2" t="n">
-        <v>5.364694516174495e-05</v>
+        <v>3.472866012543818e-07</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0001469687267672271</v>
+        <v>5.897078949601564e-07</v>
       </c>
       <c r="BN2" t="n">
-        <v>2.879618477891199e-05</v>
+        <v>9.266953782116616e-08</v>
       </c>
       <c r="BO2" t="n">
-        <v>3.32888012053445e-05</v>
+        <v>1.213666962485149e-07</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0001897256006486714</v>
+        <v>3.226343210371851e-07</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.0001568052102811635</v>
+        <v>5.195730068408011e-09</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.0003764387802220881</v>
+        <v>6.138515118436771e-08</v>
       </c>
       <c r="BS2" t="n">
-        <v>6.652832234976813e-05</v>
+        <v>5.875105735242414e-09</v>
       </c>
       <c r="BT2" t="n">
-        <v>5.999563654768281e-05</v>
+        <v>9.216034868586576e-08</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.0002650436654221267</v>
+        <v>1.526567956489089e-07</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.0001842586061684415</v>
+        <v>1.780814500307315e-07</v>
       </c>
       <c r="BW2" t="n">
-        <v>4.83017174701672e-07</v>
+        <v>2.617044891906062e-08</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.0002806781849358231</v>
+        <v>1.085070806539079e-07</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.0006319041713140905</v>
+        <v>1.637130111475926e-07</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.0002952065551653504</v>
+        <v>2.489109007797197e-08</v>
       </c>
       <c r="CA2" t="n">
-        <v>6.553727143909782e-05</v>
+        <v>1.796285005184473e-07</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.0002130305365426466</v>
+        <v>2.875576399219426e-08</v>
       </c>
       <c r="CC2" t="n">
-        <v>6.845407915534452e-05</v>
+        <v>1.374007894128226e-07</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0001770387025317177</v>
+        <v>1.558856297378952e-07</v>
       </c>
       <c r="CE2" t="n">
-        <v>8.291965059470385e-05</v>
+        <v>3.300131368177972e-08</v>
       </c>
       <c r="CF2" t="n">
-        <v>8.353057637577876e-06</v>
+        <v>3.583361873893409e-08</v>
       </c>
       <c r="CG2" t="n">
-        <v>1.45721496664919e-05</v>
+        <v>1.83239734496965e-07</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.000258724030572921</v>
+        <v>1.229134909408458e-07</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0001609949977137148</v>
+        <v>4.319955237974682e-08</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0001522055536042899</v>
+        <v>2.700604362360082e-08</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.0001660695852478966</v>
+        <v>4.022414046289668e-08</v>
       </c>
       <c r="CL2" t="n">
-        <v>3.014473350049229e-06</v>
+        <v>3.591051367379805e-08</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0001361876784358174</v>
+        <v>1.435135459360026e-07</v>
       </c>
       <c r="CN2" t="n">
-        <v>6.870358629385009e-05</v>
+        <v>2.89411730136635e-08</v>
       </c>
       <c r="CO2" t="n">
-        <v>7.908792758826166e-05</v>
+        <v>7.51729913872623e-08</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.0001396541047142819</v>
+        <v>2.753415060396947e-07</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0001930353755597025</v>
+        <v>3.0956716301489e-08</v>
       </c>
       <c r="CR2" t="n">
-        <v>3.374271545908414e-05</v>
+        <v>3.218150936845632e-07</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.0002706439408939332</v>
+        <v>3.688342644636577e-07</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0001752715179463848</v>
+        <v>2.496597346635099e-07</v>
       </c>
       <c r="CU2" t="n">
-        <v>8.298860848299228e-06</v>
+        <v>4.348709694568242e-07</v>
       </c>
       <c r="CV2" t="n">
-        <v>9.355333168059587e-05</v>
+        <v>1.441258632439713e-07</v>
       </c>
       <c r="CW2" t="n">
-        <v>8.875994535628706e-05</v>
+        <v>6.741701241708142e-08</v>
       </c>
       <c r="CX2" t="n">
-        <v>6.290037708822638e-05</v>
+        <v>4.764796557310547e-08</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.892670843517408e-05</v>
+        <v>1.207146596016173e-07</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.0002198745642090216</v>
+        <v>1.042401187589803e-08</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.0001857642928371206</v>
+        <v>1.103762770071626e-07</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0001232283684657887</v>
+        <v>4.426815536362483e-08</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.0001167069203802384</v>
+        <v>7.664059609169271e-08</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0001249062188435346</v>
+        <v>6.592364343305235e-08</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0002722402568906546</v>
+        <v>1.411668080208983e-07</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0001668569166213274</v>
+        <v>5.559603550864267e-07</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0001221657585119829</v>
+        <v>2.119227531238721e-07</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0004482179938349873</v>
+        <v>2.477506768627791e-07</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.0002887297014240175</v>
+        <v>1.727871392631641e-07</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.0001626638986635953</v>
+        <v>4.334052619014983e-07</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.0005397645873017609</v>
+        <v>6.124184892541962e-07</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0001229895569849759</v>
+        <v>1.838388499209032e-07</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.0001297929848078638</v>
+        <v>2.887132382056734e-07</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0001262310252059251</v>
+        <v>2.17214093822804e-07</v>
       </c>
       <c r="DO2" t="n">
-        <v>7.262153667397797e-05</v>
+        <v>1.970823149122225e-07</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.0001721303851809353</v>
+        <v>4.638136488210876e-07</v>
       </c>
       <c r="DQ2" t="n">
-        <v>8.540257113054395e-05</v>
+        <v>4.350411018094746e-07</v>
       </c>
       <c r="DR2" t="n">
-        <v>4.664750667870976e-05</v>
+        <v>2.782366550491133e-07</v>
       </c>
       <c r="DS2" t="n">
-        <v>6.7115784077032e-06</v>
+        <v>1.399077476094135e-08</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.0002012411423493177</v>
+        <v>2.159549694624729e-08</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.0001875934249255806</v>
+        <v>6.283497100412205e-08</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.0001264276070287451</v>
+        <v>1.216621683397534e-07</v>
       </c>
       <c r="DW2" t="n">
-        <v>9.596795280231163e-05</v>
+        <v>3.553174963144556e-07</v>
       </c>
       <c r="DX2" t="n">
-        <v>7.295850082300603e-05</v>
+        <v>1.17952744460581e-07</v>
       </c>
       <c r="DY2" t="n">
-        <v>6.986826338106766e-05</v>
+        <v>1.854371731724314e-07</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.0001073808743967675</v>
+        <v>1.780353784397448e-07</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0003379486151970923</v>
+        <v>4.069479331292314e-08</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.0002202919276896864</v>
+        <v>2.587192966529983e-07</v>
       </c>
       <c r="EC2" t="n">
-        <v>8.078105020103976e-05</v>
+        <v>1.521094716849802e-08</v>
       </c>
       <c r="ED2" t="n">
-        <v>5.885386053705588e-05</v>
+        <v>4.339810288911394e-08</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0002574942482169718</v>
+        <v>2.061983224166397e-07</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0003569702093955129</v>
+        <v>2.042941815716404e-07</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.0001054759777616709</v>
+        <v>4.858632607351865e-08</v>
       </c>
       <c r="EH2" t="n">
-        <v>9.957406291505322e-06</v>
+        <v>1.319898856877444e-08</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.0001856773305917159</v>
+        <v>4.413525687141373e-07</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0003851668152492493</v>
+        <v>1.927465298479092e-09</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.0003188704140484333</v>
+        <v>1.180649320531302e-07</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0001128025105572306</v>
+        <v>8.262747996923281e-08</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0002370455913478509</v>
+        <v>1.537593448119878e-07</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0001226345193572342</v>
+        <v>6.349110037717764e-08</v>
       </c>
       <c r="EO2" t="n">
-        <v>3.441323497099802e-05</v>
+        <v>2.870078787964303e-07</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0001648125471547246</v>
+        <v>8.337165979810379e-08</v>
       </c>
       <c r="EQ2" t="n">
-        <v>4.818764864467084e-05</v>
+        <v>3.149438043692498e-07</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.0001778375444700941</v>
+        <v>8.279062058136333e-08</v>
       </c>
       <c r="ES2" t="n">
-        <v>9.047402272699401e-05</v>
+        <v>3.981226370797231e-08</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.0001392741542076692</v>
+        <v>1.580479107587962e-07</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.0001858774048741907</v>
+        <v>7.316912586929902e-08</v>
       </c>
       <c r="EV2" t="n">
-        <v>8.722541679162532e-05</v>
+        <v>1.174218411392758e-07</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.0002407262072665617</v>
+        <v>1.148943837847582e-07</v>
       </c>
       <c r="EX2" t="n">
-        <v>7.105651457095519e-05</v>
+        <v>2.109767649471905e-07</v>
       </c>
       <c r="EY2" t="n">
-        <v>7.313382957363501e-05</v>
+        <v>5.644537992566256e-08</v>
       </c>
       <c r="EZ2" t="n">
-        <v>2.690011388040148e-05</v>
+        <v>2.223416473157158e-08</v>
       </c>
       <c r="FA2" t="n">
-        <v>4.138857548241504e-06</v>
+        <v>1.695864568773686e-07</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.0002653867413755506</v>
+        <v>8.905300319383969e-08</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.000158142254804261</v>
+        <v>4.123641517139731e-08</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.0001025854580802843</v>
+        <v>1.346426614645679e-08</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0001520705409348011</v>
+        <v>1.488683842865157e-08</v>
       </c>
       <c r="FF2" t="n">
-        <v>3.809386544162408e-05</v>
+        <v>8.103913984314204e-09</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.0002486348676029593</v>
+        <v>1.08407157028978e-07</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0001737596467137337</v>
+        <v>2.999887840360316e-07</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0001221552665811032</v>
+        <v>4.300066436258021e-08</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.000160912677529268</v>
+        <v>2.962336509426677e-07</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.0002902373380493373</v>
+        <v>1.906708035903648e-07</v>
       </c>
       <c r="FL2" t="n">
-        <v>7.870711124269292e-05</v>
+        <v>1.781622387397874e-07</v>
       </c>
       <c r="FM2" t="n">
-        <v>4.19105781475082e-05</v>
+        <v>3.630391631759267e-08</v>
       </c>
       <c r="FN2" t="n">
-        <v>2.326675712538417e-05</v>
+        <v>7.895878439967419e-08</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0001292047381866723</v>
+        <v>1.276160901397816e-07</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0002380734076723456</v>
+        <v>4.424888970788743e-07</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0001923816744238138</v>
+        <v>3.840229965135222e-07</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0001621323172003031</v>
+        <v>1.01649092698608e-07</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.0006685724947601557</v>
+        <v>6.434446930825288e-08</v>
       </c>
       <c r="FT2" t="n">
-        <v>3.187594120390713e-05</v>
+        <v>8.781341875874205e-08</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.0001342473260592669</v>
+        <v>1.205586528385538e-07</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.0002181903400924057</v>
+        <v>6.272523478401126e-07</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.0002868111478164792</v>
+        <v>2.430558367905178e-07</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.0002598428400233388</v>
+        <v>2.538089063364168e-07</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.0002626323257572949</v>
+        <v>5.560017939387762e-07</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.0001398655003868043</v>
+        <v>1.070645367917678e-07</v>
       </c>
       <c r="GA2" t="n">
-        <v>7.908679253887385e-05</v>
+        <v>5.220420575824392e-07</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.000272057979600504</v>
+        <v>5.728625751544314e-08</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.0002595082623884082</v>
+        <v>3.551924692146713e-07</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.0003733631165232509</v>
+        <v>3.43458964380261e-07</v>
       </c>
       <c r="GE2" t="n">
-        <v>8.85884219314903e-07</v>
+        <v>1.845185977344954e-07</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.0002108662156388164</v>
+        <v>8.170167831167419e-08</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.0001160331667051651</v>
+        <v>1.530530369109329e-07</v>
       </c>
     </row>
     <row r="3">
